--- a/USHPRR/uvsmo_concentration.xlsx
+++ b/USHPRR/uvsmo_concentration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/Documents/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A624D3E2-DB9E-CF4B-9009-47643B2F6CA4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BE5198-82EA-DB4E-A78F-AB42A4CB02D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3400" yWindow="2400" windowWidth="35460" windowHeight="18380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="800K" sheetId="2" r:id="rId2"/>
     <sheet name="600" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -2762,9 +2762,18 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="5"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.6527777777777752E-2"/>
+                  <c:y val="-0.59201388888888884"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -6281,8 +6290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="F18" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
